--- a/dynamics/src/dynamics/xlsx/tested_state_original_design_case1.xlsx
+++ b/dynamics/src/dynamics/xlsx/tested_state_original_design_case1.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>0-A-10</t>
+          <t>0-A-0</t>
         </is>
       </c>
       <c r="B1" t="n">
@@ -443,26 +443,26 @@
         <v>23.964</v>
       </c>
       <c r="G1" t="n">
-        <v>44.7</v>
+        <v>25.3</v>
       </c>
       <c r="H1" t="n">
-        <v>25.1</v>
+        <v>25.3</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>0-A-30</t>
+          <t>0-C-0</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="D2" t="n">
-        <v>0.02071574340946317</v>
+        <v>0.01650865619802579</v>
       </c>
       <c r="E2" t="n">
         <v>26.036</v>
@@ -471,26 +471,26 @@
         <v>23.964</v>
       </c>
       <c r="G2" t="n">
-        <v>44.7</v>
+        <v>25.3</v>
       </c>
       <c r="H2" t="n">
-        <v>25.1</v>
+        <v>25.3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>0-B-10</t>
+          <t>0.5-A-0</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.008352056178274002</v>
+        <v>0.02071574340946317</v>
       </c>
       <c r="E3" t="n">
         <v>26.036</v>
@@ -499,26 +499,26 @@
         <v>23.964</v>
       </c>
       <c r="G3" t="n">
-        <v>44.7</v>
+        <v>25.3</v>
       </c>
       <c r="H3" t="n">
-        <v>25.1</v>
+        <v>25.3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>0-B-30</t>
+          <t>0.5-C-0</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="D4" t="n">
-        <v>0.008352056178274002</v>
+        <v>0.01650865619802579</v>
       </c>
       <c r="E4" t="n">
         <v>26.036</v>
@@ -527,26 +527,26 @@
         <v>23.964</v>
       </c>
       <c r="G4" t="n">
-        <v>44.7</v>
+        <v>25.3</v>
       </c>
       <c r="H4" t="n">
-        <v>25.1</v>
+        <v>25.3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>0-C-10</t>
+          <t>1-A-0</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.01650865619802579</v>
+        <v>0.02071574340946317</v>
       </c>
       <c r="E5" t="n">
         <v>26.036</v>
@@ -555,16 +555,16 @@
         <v>23.964</v>
       </c>
       <c r="G5" t="n">
-        <v>44.7</v>
+        <v>25.3</v>
       </c>
       <c r="H5" t="n">
-        <v>25.1</v>
+        <v>25.3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>0-C-30</t>
+          <t>1-C-0</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -583,20 +583,20 @@
         <v>23.964</v>
       </c>
       <c r="G6" t="n">
-        <v>44.7</v>
+        <v>25.3</v>
       </c>
       <c r="H6" t="n">
-        <v>25.1</v>
+        <v>25.3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>0.5-A-10</t>
+          <t>2-A-0</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -611,26 +611,26 @@
         <v>23.964</v>
       </c>
       <c r="G7" t="n">
-        <v>44.7</v>
+        <v>25.3</v>
       </c>
       <c r="H7" t="n">
-        <v>25.1</v>
+        <v>25.3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>0.5-A-30</t>
+          <t>2-C-0</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="D8" t="n">
-        <v>0.02071574340946317</v>
+        <v>0.01650865619802579</v>
       </c>
       <c r="E8" t="n">
         <v>26.036</v>
@@ -639,26 +639,26 @@
         <v>23.964</v>
       </c>
       <c r="G8" t="n">
-        <v>44.7</v>
+        <v>25.3</v>
       </c>
       <c r="H8" t="n">
-        <v>25.1</v>
+        <v>25.3</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>0.5-B-10</t>
+          <t>3-A-0</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>0.008352056178274002</v>
+        <v>0.02071574340946317</v>
       </c>
       <c r="E9" t="n">
         <v>26.036</v>
@@ -667,26 +667,26 @@
         <v>23.964</v>
       </c>
       <c r="G9" t="n">
-        <v>44.7</v>
+        <v>25.3</v>
       </c>
       <c r="H9" t="n">
-        <v>25.1</v>
+        <v>25.3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>0.5-B-30</t>
+          <t>3-C-0</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="D10" t="n">
-        <v>0.008352056178274002</v>
+        <v>0.01650865619802579</v>
       </c>
       <c r="E10" t="n">
         <v>26.036</v>
@@ -695,26 +695,26 @@
         <v>23.964</v>
       </c>
       <c r="G10" t="n">
-        <v>44.7</v>
+        <v>25.3</v>
       </c>
       <c r="H10" t="n">
-        <v>25.1</v>
+        <v>25.3</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>0.5-C-10</t>
+          <t>4-A-0</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>0.01650865619802579</v>
+        <v>0.02071574340946317</v>
       </c>
       <c r="E11" t="n">
         <v>26.036</v>
@@ -723,20 +723,20 @@
         <v>23.964</v>
       </c>
       <c r="G11" t="n">
-        <v>44.7</v>
+        <v>25.3</v>
       </c>
       <c r="H11" t="n">
-        <v>25.1</v>
+        <v>25.3</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>0.5-C-30</t>
+          <t>4-C-0</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C12" t="n">
         <v>0.7</v>
@@ -751,20 +751,20 @@
         <v>23.964</v>
       </c>
       <c r="G12" t="n">
-        <v>44.7</v>
+        <v>25.3</v>
       </c>
       <c r="H12" t="n">
-        <v>25.1</v>
+        <v>25.3</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1-A-10</t>
+          <t>5-A-0</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -779,26 +779,26 @@
         <v>23.964</v>
       </c>
       <c r="G13" t="n">
-        <v>44.7</v>
+        <v>25.3</v>
       </c>
       <c r="H13" t="n">
-        <v>25.1</v>
+        <v>25.3</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1-A-30</t>
+          <t>5-C-0</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="D14" t="n">
-        <v>0.02071574340946317</v>
+        <v>0.01650865619802579</v>
       </c>
       <c r="E14" t="n">
         <v>26.036</v>
@@ -807,626 +807,10 @@
         <v>23.964</v>
       </c>
       <c r="G14" t="n">
-        <v>44.7</v>
+        <v>25.3</v>
       </c>
       <c r="H14" t="n">
-        <v>25.1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>1-B-10</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.008352056178274002</v>
-      </c>
-      <c r="E15" t="n">
-        <v>26.036</v>
-      </c>
-      <c r="F15" t="n">
-        <v>23.964</v>
-      </c>
-      <c r="G15" t="n">
-        <v>44.7</v>
-      </c>
-      <c r="H15" t="n">
-        <v>25.1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>1-B-30</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>0</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.008352056178274002</v>
-      </c>
-      <c r="E16" t="n">
-        <v>26.036</v>
-      </c>
-      <c r="F16" t="n">
-        <v>23.964</v>
-      </c>
-      <c r="G16" t="n">
-        <v>44.7</v>
-      </c>
-      <c r="H16" t="n">
-        <v>25.1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>1-C-10</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>0</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.01650865619802579</v>
-      </c>
-      <c r="E17" t="n">
-        <v>26.036</v>
-      </c>
-      <c r="F17" t="n">
-        <v>23.964</v>
-      </c>
-      <c r="G17" t="n">
-        <v>44.7</v>
-      </c>
-      <c r="H17" t="n">
-        <v>25.1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>1-C-30</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>0</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0.01650865619802579</v>
-      </c>
-      <c r="E18" t="n">
-        <v>26.036</v>
-      </c>
-      <c r="F18" t="n">
-        <v>23.964</v>
-      </c>
-      <c r="G18" t="n">
-        <v>44.7</v>
-      </c>
-      <c r="H18" t="n">
-        <v>25.1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>3-A-10</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>2</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0.02071574340946317</v>
-      </c>
-      <c r="E19" t="n">
-        <v>26.036</v>
-      </c>
-      <c r="F19" t="n">
-        <v>23.964</v>
-      </c>
-      <c r="G19" t="n">
-        <v>44.7</v>
-      </c>
-      <c r="H19" t="n">
-        <v>25.1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>3-A-30</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>2</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0.02071574340946317</v>
-      </c>
-      <c r="E20" t="n">
-        <v>26.036</v>
-      </c>
-      <c r="F20" t="n">
-        <v>23.964</v>
-      </c>
-      <c r="G20" t="n">
-        <v>44.7</v>
-      </c>
-      <c r="H20" t="n">
-        <v>25.1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>3-B-10</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>2</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.008352056178274002</v>
-      </c>
-      <c r="E21" t="n">
-        <v>26.036</v>
-      </c>
-      <c r="F21" t="n">
-        <v>23.964</v>
-      </c>
-      <c r="G21" t="n">
-        <v>44.7</v>
-      </c>
-      <c r="H21" t="n">
-        <v>25.1</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>3-B-30</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>2</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.008352056178274002</v>
-      </c>
-      <c r="E22" t="n">
-        <v>26.036</v>
-      </c>
-      <c r="F22" t="n">
-        <v>23.964</v>
-      </c>
-      <c r="G22" t="n">
-        <v>44.7</v>
-      </c>
-      <c r="H22" t="n">
-        <v>25.1</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>3-C-10</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>2</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0.01650865619802579</v>
-      </c>
-      <c r="E23" t="n">
-        <v>26.036</v>
-      </c>
-      <c r="F23" t="n">
-        <v>23.964</v>
-      </c>
-      <c r="G23" t="n">
-        <v>44.7</v>
-      </c>
-      <c r="H23" t="n">
-        <v>25.1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>3-C-30</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>2</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0.01650865619802579</v>
-      </c>
-      <c r="E24" t="n">
-        <v>26.036</v>
-      </c>
-      <c r="F24" t="n">
-        <v>23.964</v>
-      </c>
-      <c r="G24" t="n">
-        <v>44.7</v>
-      </c>
-      <c r="H24" t="n">
-        <v>25.1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>5-A-10</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>2</v>
-      </c>
-      <c r="C25" t="n">
-        <v>1</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0.02071574340946317</v>
-      </c>
-      <c r="E25" t="n">
-        <v>26.036</v>
-      </c>
-      <c r="F25" t="n">
-        <v>23.964</v>
-      </c>
-      <c r="G25" t="n">
-        <v>44.7</v>
-      </c>
-      <c r="H25" t="n">
-        <v>25.1</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>5-A-30</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>2</v>
-      </c>
-      <c r="C26" t="n">
-        <v>1</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0.02071574340946317</v>
-      </c>
-      <c r="E26" t="n">
-        <v>26.036</v>
-      </c>
-      <c r="F26" t="n">
-        <v>23.964</v>
-      </c>
-      <c r="G26" t="n">
-        <v>44.7</v>
-      </c>
-      <c r="H26" t="n">
-        <v>25.1</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>5-B-10</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>2</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0.008352056178274002</v>
-      </c>
-      <c r="E27" t="n">
-        <v>26.036</v>
-      </c>
-      <c r="F27" t="n">
-        <v>23.964</v>
-      </c>
-      <c r="G27" t="n">
-        <v>44.7</v>
-      </c>
-      <c r="H27" t="n">
-        <v>25.1</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>5-B-30</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>2</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0.008352056178274002</v>
-      </c>
-      <c r="E28" t="n">
-        <v>26.036</v>
-      </c>
-      <c r="F28" t="n">
-        <v>23.964</v>
-      </c>
-      <c r="G28" t="n">
-        <v>44.7</v>
-      </c>
-      <c r="H28" t="n">
-        <v>25.1</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>5-C-10</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>2</v>
-      </c>
-      <c r="C29" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0.01650865619802579</v>
-      </c>
-      <c r="E29" t="n">
-        <v>26.036</v>
-      </c>
-      <c r="F29" t="n">
-        <v>23.964</v>
-      </c>
-      <c r="G29" t="n">
-        <v>44.7</v>
-      </c>
-      <c r="H29" t="n">
-        <v>25.1</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>5-C-30</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>2</v>
-      </c>
-      <c r="C30" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0.01650865619802579</v>
-      </c>
-      <c r="E30" t="n">
-        <v>26.036</v>
-      </c>
-      <c r="F30" t="n">
-        <v>23.964</v>
-      </c>
-      <c r="G30" t="n">
-        <v>44.7</v>
-      </c>
-      <c r="H30" t="n">
-        <v>25.1</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>6-A-10</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>2</v>
-      </c>
-      <c r="C31" t="n">
-        <v>1</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0.02071574340946317</v>
-      </c>
-      <c r="E31" t="n">
-        <v>26.036</v>
-      </c>
-      <c r="F31" t="n">
-        <v>23.964</v>
-      </c>
-      <c r="G31" t="n">
-        <v>44.7</v>
-      </c>
-      <c r="H31" t="n">
-        <v>25.1</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>6-A-30</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>2</v>
-      </c>
-      <c r="C32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0.02071574340946317</v>
-      </c>
-      <c r="E32" t="n">
-        <v>26.036</v>
-      </c>
-      <c r="F32" t="n">
-        <v>23.964</v>
-      </c>
-      <c r="G32" t="n">
-        <v>44.7</v>
-      </c>
-      <c r="H32" t="n">
-        <v>25.1</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>6-B-10</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>2</v>
-      </c>
-      <c r="C33" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0.008352056178274002</v>
-      </c>
-      <c r="E33" t="n">
-        <v>26.036</v>
-      </c>
-      <c r="F33" t="n">
-        <v>23.964</v>
-      </c>
-      <c r="G33" t="n">
-        <v>44.7</v>
-      </c>
-      <c r="H33" t="n">
-        <v>25.1</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>6-B-30</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>2</v>
-      </c>
-      <c r="C34" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0.008352056178274002</v>
-      </c>
-      <c r="E34" t="n">
-        <v>26.036</v>
-      </c>
-      <c r="F34" t="n">
-        <v>23.964</v>
-      </c>
-      <c r="G34" t="n">
-        <v>44.7</v>
-      </c>
-      <c r="H34" t="n">
-        <v>25.1</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>6-C-10</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>2</v>
-      </c>
-      <c r="C35" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0.01650865619802579</v>
-      </c>
-      <c r="E35" t="n">
-        <v>26.036</v>
-      </c>
-      <c r="F35" t="n">
-        <v>23.964</v>
-      </c>
-      <c r="G35" t="n">
-        <v>44.7</v>
-      </c>
-      <c r="H35" t="n">
-        <v>25.1</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>6-C-30</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>2</v>
-      </c>
-      <c r="C36" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0.01650865619802579</v>
-      </c>
-      <c r="E36" t="n">
-        <v>26.036</v>
-      </c>
-      <c r="F36" t="n">
-        <v>23.964</v>
-      </c>
-      <c r="G36" t="n">
-        <v>44.7</v>
-      </c>
-      <c r="H36" t="n">
-        <v>25.1</v>
+        <v>25.3</v>
       </c>
     </row>
   </sheetData>

--- a/dynamics/src/dynamics/xlsx/tested_state_original_design_case1.xlsx
+++ b/dynamics/src/dynamics/xlsx/tested_state_original_design_case1.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,17 +452,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>0-C-0</t>
+          <t>0-B-0</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01650865619802579</v>
+        <v>0.008352056178274002</v>
       </c>
       <c r="E2" t="n">
         <v>26.036</v>
@@ -480,17 +480,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>0.5-A-0</t>
+          <t>0-C-0</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="D3" t="n">
-        <v>0.02071574340946317</v>
+        <v>0.01650865619802579</v>
       </c>
       <c r="E3" t="n">
         <v>26.036</v>
@@ -508,17 +508,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>0.5-C-0</t>
+          <t>1-A-0</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.01650865619802579</v>
+        <v>0.02071574340946317</v>
       </c>
       <c r="E4" t="n">
         <v>26.036</v>
@@ -536,17 +536,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1-A-0</t>
+          <t>1-B-0</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="D5" t="n">
-        <v>0.02071574340946317</v>
+        <v>0.008352056178274002</v>
       </c>
       <c r="E5" t="n">
         <v>26.036</v>
@@ -620,17 +620,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2-C-0</t>
+          <t>2-B-0</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="D8" t="n">
-        <v>0.01650865619802579</v>
+        <v>0.008352056178274002</v>
       </c>
       <c r="E8" t="n">
         <v>26.036</v>
@@ -648,17 +648,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>3-A-0</t>
+          <t>2-C-0</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="D9" t="n">
-        <v>0.02071574340946317</v>
+        <v>0.01650865619802579</v>
       </c>
       <c r="E9" t="n">
         <v>26.036</v>
@@ -676,17 +676,17 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>3-C-0</t>
+          <t>3-A-0</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>0.01650865619802579</v>
+        <v>0.02071574340946317</v>
       </c>
       <c r="E10" t="n">
         <v>26.036</v>
@@ -704,17 +704,17 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>4-A-0</t>
+          <t>3-B-0</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="D11" t="n">
-        <v>0.02071574340946317</v>
+        <v>0.008352056178274002</v>
       </c>
       <c r="E11" t="n">
         <v>26.036</v>
@@ -732,11 +732,11 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>4-C-0</t>
+          <t>3-C-0</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
         <v>0.7</v>
@@ -760,7 +760,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>5-A-0</t>
+          <t>4-A-0</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -788,28 +788,140 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>5-C-0</t>
+          <t>4-B-0</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>2</v>
       </c>
       <c r="C14" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.008352056178274002</v>
+      </c>
+      <c r="E14" t="n">
+        <v>26.036</v>
+      </c>
+      <c r="F14" t="n">
+        <v>23.964</v>
+      </c>
+      <c r="G14" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="H14" t="n">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4-C-0</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>2</v>
+      </c>
+      <c r="C15" t="n">
         <v>0.7</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D15" t="n">
         <v>0.01650865619802579</v>
       </c>
-      <c r="E14" t="n">
-        <v>26.036</v>
-      </c>
-      <c r="F14" t="n">
-        <v>23.964</v>
-      </c>
-      <c r="G14" t="n">
-        <v>25.3</v>
-      </c>
-      <c r="H14" t="n">
+      <c r="E15" t="n">
+        <v>26.036</v>
+      </c>
+      <c r="F15" t="n">
+        <v>23.964</v>
+      </c>
+      <c r="G15" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="H15" t="n">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>5-A-0</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>2</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.02071574340946317</v>
+      </c>
+      <c r="E16" t="n">
+        <v>26.036</v>
+      </c>
+      <c r="F16" t="n">
+        <v>23.964</v>
+      </c>
+      <c r="G16" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="H16" t="n">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>5-B-0</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>2</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.008352056178274002</v>
+      </c>
+      <c r="E17" t="n">
+        <v>26.036</v>
+      </c>
+      <c r="F17" t="n">
+        <v>23.964</v>
+      </c>
+      <c r="G17" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="H17" t="n">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>5-C-0</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>2</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.01650865619802579</v>
+      </c>
+      <c r="E18" t="n">
+        <v>26.036</v>
+      </c>
+      <c r="F18" t="n">
+        <v>23.964</v>
+      </c>
+      <c r="G18" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="H18" t="n">
         <v>25.3</v>
       </c>
     </row>

--- a/dynamics/src/dynamics/xlsx/tested_state_original_design_case1.xlsx
+++ b/dynamics/src/dynamics/xlsx/tested_state_original_design_case1.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,17 +424,17 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>0-A-0</t>
+          <t>0-C-0</t>
         </is>
       </c>
       <c r="B1" t="n">
         <v>0</v>
       </c>
       <c r="C1" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="D1" t="n">
-        <v>0.02178829349905755</v>
+        <v>0.01112081887113899</v>
       </c>
       <c r="E1" t="n">
         <v>26.036</v>
@@ -452,17 +452,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>0-B-0</t>
+          <t>1-C-0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>0.6</v>
       </c>
       <c r="D2" t="n">
-        <v>0.006811749575498305</v>
+        <v>0.01112081887113899</v>
       </c>
       <c r="E2" t="n">
         <v>26.036</v>
@@ -480,17 +480,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1-A-0</t>
+          <t>2-C-0</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="D3" t="n">
-        <v>0.02178829349905755</v>
+        <v>0.01112081887113899</v>
       </c>
       <c r="E3" t="n">
         <v>26.036</v>
@@ -508,7 +508,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1-B-0</t>
+          <t>3-C-0</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -518,7 +518,7 @@
         <v>0.6</v>
       </c>
       <c r="D4" t="n">
-        <v>0.006811749575498305</v>
+        <v>0.01112081887113899</v>
       </c>
       <c r="E4" t="n">
         <v>26.036</v>
@@ -536,17 +536,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2-A-0</t>
+          <t>4-C-0</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="D5" t="n">
-        <v>0.02178829349905755</v>
+        <v>0.01112081887113899</v>
       </c>
       <c r="E5" t="n">
         <v>26.036</v>
@@ -564,17 +564,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2-B-0</t>
+          <t>5-C-0</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>0.6</v>
       </c>
       <c r="D6" t="n">
-        <v>0.006811749575498305</v>
+        <v>0.01112081887113899</v>
       </c>
       <c r="E6" t="n">
         <v>26.036</v>
@@ -586,174 +586,6 @@
         <v>25.3</v>
       </c>
       <c r="H6" t="n">
-        <v>25.3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>3-A-0</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.02178829349905755</v>
-      </c>
-      <c r="E7" t="n">
-        <v>26.036</v>
-      </c>
-      <c r="F7" t="n">
-        <v>23.964</v>
-      </c>
-      <c r="G7" t="n">
-        <v>25.3</v>
-      </c>
-      <c r="H7" t="n">
-        <v>25.3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>3-B-0</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.006811749575498305</v>
-      </c>
-      <c r="E8" t="n">
-        <v>26.036</v>
-      </c>
-      <c r="F8" t="n">
-        <v>23.964</v>
-      </c>
-      <c r="G8" t="n">
-        <v>25.3</v>
-      </c>
-      <c r="H8" t="n">
-        <v>25.3</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4-A-0</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.02178829349905755</v>
-      </c>
-      <c r="E9" t="n">
-        <v>26.036</v>
-      </c>
-      <c r="F9" t="n">
-        <v>23.964</v>
-      </c>
-      <c r="G9" t="n">
-        <v>25.3</v>
-      </c>
-      <c r="H9" t="n">
-        <v>25.3</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4-B-0</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.006811749575498305</v>
-      </c>
-      <c r="E10" t="n">
-        <v>26.036</v>
-      </c>
-      <c r="F10" t="n">
-        <v>23.964</v>
-      </c>
-      <c r="G10" t="n">
-        <v>25.3</v>
-      </c>
-      <c r="H10" t="n">
-        <v>25.3</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>5-A-0</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>2</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.02178829349905755</v>
-      </c>
-      <c r="E11" t="n">
-        <v>26.036</v>
-      </c>
-      <c r="F11" t="n">
-        <v>23.964</v>
-      </c>
-      <c r="G11" t="n">
-        <v>25.3</v>
-      </c>
-      <c r="H11" t="n">
-        <v>25.3</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>5-B-0</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>2</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.006811749575498305</v>
-      </c>
-      <c r="E12" t="n">
-        <v>26.036</v>
-      </c>
-      <c r="F12" t="n">
-        <v>23.964</v>
-      </c>
-      <c r="G12" t="n">
-        <v>25.3</v>
-      </c>
-      <c r="H12" t="n">
         <v>25.3</v>
       </c>
     </row>
